--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F8-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F8-Ldlr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.883886666666666</v>
+        <v>0.413144</v>
       </c>
       <c r="H2">
-        <v>5.65166</v>
+        <v>1.239432</v>
       </c>
       <c r="I2">
-        <v>0.7298568945019563</v>
+        <v>0.4553782032534783</v>
       </c>
       <c r="J2">
-        <v>0.7298568945019563</v>
+        <v>0.4553782032534782</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.425703666666666</v>
+        <v>0.8317113333333332</v>
       </c>
       <c r="N2">
-        <v>4.277111</v>
+        <v>2.495134</v>
       </c>
       <c r="O2">
-        <v>0.04715501820393346</v>
+        <v>0.0263454906755698</v>
       </c>
       <c r="P2">
-        <v>0.04715501820393346</v>
+        <v>0.0263454906755698</v>
       </c>
       <c r="Q2">
-        <v>2.685864128251111</v>
+        <v>0.3436165470986666</v>
       </c>
       <c r="R2">
-        <v>24.17277715426</v>
+        <v>3.092548923888</v>
       </c>
       <c r="S2">
-        <v>0.0344164151465061</v>
+        <v>0.01199716220767224</v>
       </c>
       <c r="T2">
-        <v>0.0344164151465061</v>
+        <v>0.01199716220767224</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.883886666666666</v>
+        <v>0.413144</v>
       </c>
       <c r="H3">
-        <v>5.65166</v>
+        <v>1.239432</v>
       </c>
       <c r="I3">
-        <v>0.7298568945019563</v>
+        <v>0.4553782032534783</v>
       </c>
       <c r="J3">
-        <v>0.7298568945019563</v>
+        <v>0.4553782032534782</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>61.843018</v>
       </c>
       <c r="O3">
-        <v>0.6818173855147049</v>
+        <v>0.6529848313028861</v>
       </c>
       <c r="P3">
-        <v>0.6818173855147048</v>
+        <v>0.6529848313028862</v>
       </c>
       <c r="Q3">
-        <v>38.83507901220889</v>
+        <v>8.516690609530666</v>
       </c>
       <c r="R3">
-        <v>349.51571110988</v>
+        <v>76.650215485776</v>
       </c>
       <c r="S3">
-        <v>0.4976291196092057</v>
+        <v>0.2973550592304839</v>
       </c>
       <c r="T3">
-        <v>0.4976291196092056</v>
+        <v>0.2973550592304839</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.883886666666666</v>
+        <v>0.413144</v>
       </c>
       <c r="H4">
-        <v>5.65166</v>
+        <v>1.239432</v>
       </c>
       <c r="I4">
-        <v>0.7298568945019563</v>
+        <v>0.4553782032534783</v>
       </c>
       <c r="J4">
-        <v>0.7298568945019563</v>
+        <v>0.4553782032534782</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.194356666666666</v>
+        <v>10.12334933333333</v>
       </c>
       <c r="N4">
-        <v>24.58307</v>
+        <v>30.370048</v>
       </c>
       <c r="O4">
-        <v>0.2710275962813615</v>
+        <v>0.3206696780215441</v>
       </c>
       <c r="P4">
-        <v>0.2710275962813615</v>
+        <v>0.3206696780215441</v>
       </c>
       <c r="Q4">
-        <v>15.43723926624444</v>
+        <v>4.182401036970667</v>
       </c>
       <c r="R4">
-        <v>138.9351533962</v>
+        <v>37.641609332736</v>
       </c>
       <c r="S4">
-        <v>0.1978113597462445</v>
+        <v>0.1460259818153221</v>
       </c>
       <c r="T4">
-        <v>0.1978113597462445</v>
+        <v>0.1460259818153221</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.060377</v>
       </c>
       <c r="I5">
-        <v>0.1369373713601492</v>
+        <v>0.3895918235379703</v>
       </c>
       <c r="J5">
-        <v>0.1369373713601492</v>
+        <v>0.3895918235379702</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.425703666666666</v>
+        <v>0.8317113333333332</v>
       </c>
       <c r="N5">
-        <v>4.277111</v>
+        <v>2.495134</v>
       </c>
       <c r="O5">
-        <v>0.04715501820393346</v>
+        <v>0.0263454906755698</v>
       </c>
       <c r="P5">
-        <v>0.04715501820393346</v>
+        <v>0.0263454906755698</v>
       </c>
       <c r="Q5">
-        <v>0.5039277923163332</v>
+        <v>0.2939758561686667</v>
       </c>
       <c r="R5">
-        <v>4.535350130846999</v>
+        <v>2.645782705518</v>
       </c>
       <c r="S5">
-        <v>0.006457284239286633</v>
+        <v>0.01026398775429783</v>
       </c>
       <c r="T5">
-        <v>0.006457284239286633</v>
+        <v>0.01026398775429783</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.060377</v>
       </c>
       <c r="I6">
-        <v>0.1369373713601492</v>
+        <v>0.3895918235379703</v>
       </c>
       <c r="J6">
-        <v>0.1369373713601492</v>
+        <v>0.3895918235379702</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>61.843018</v>
       </c>
       <c r="O6">
-        <v>0.6818173855147049</v>
+        <v>0.6529848313028861</v>
       </c>
       <c r="P6">
-        <v>0.6818173855147048</v>
+        <v>0.6529848313028862</v>
       </c>
       <c r="Q6">
-        <v>7.286323766420666</v>
+        <v>7.286323766420667</v>
       </c>
       <c r="R6">
-        <v>65.576913897786</v>
+        <v>65.57691389778601</v>
       </c>
       <c r="S6">
-        <v>0.09336628052003318</v>
+        <v>0.2543975511699253</v>
       </c>
       <c r="T6">
-        <v>0.09336628052003317</v>
+        <v>0.2543975511699253</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.060377</v>
       </c>
       <c r="I7">
-        <v>0.1369373713601492</v>
+        <v>0.3895918235379703</v>
       </c>
       <c r="J7">
-        <v>0.1369373713601492</v>
+        <v>0.3895918235379702</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.194356666666666</v>
+        <v>10.12334933333333</v>
       </c>
       <c r="N7">
-        <v>24.58307</v>
+        <v>30.370048</v>
       </c>
       <c r="O7">
-        <v>0.2710275962813615</v>
+        <v>0.3206696780215441</v>
       </c>
       <c r="P7">
-        <v>0.2710275962813615</v>
+        <v>0.3206696780215441</v>
       </c>
       <c r="Q7">
-        <v>2.896369113043333</v>
+        <v>3.578188932010667</v>
       </c>
       <c r="R7">
-        <v>26.06732201739</v>
+        <v>32.203700388096</v>
       </c>
       <c r="S7">
-        <v>0.0371138066008294</v>
+        <v>0.1249302846137471</v>
       </c>
       <c r="T7">
-        <v>0.0371138066008294</v>
+        <v>0.1249302846137471</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.343827</v>
+        <v>0.1406516666666666</v>
       </c>
       <c r="H8">
-        <v>1.031481</v>
+        <v>0.421955</v>
       </c>
       <c r="I8">
-        <v>0.1332057341378945</v>
+        <v>0.1550299732085515</v>
       </c>
       <c r="J8">
-        <v>0.1332057341378944</v>
+        <v>0.1550299732085515</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.425703666666666</v>
+        <v>0.8317113333333332</v>
       </c>
       <c r="N8">
-        <v>4.277111</v>
+        <v>2.495134</v>
       </c>
       <c r="O8">
-        <v>0.04715501820393346</v>
+        <v>0.0263454906755698</v>
       </c>
       <c r="P8">
-        <v>0.04715501820393346</v>
+        <v>0.0263454906755698</v>
       </c>
       <c r="Q8">
-        <v>0.490195414599</v>
+        <v>0.1169815852188889</v>
       </c>
       <c r="R8">
-        <v>4.411758731391</v>
+        <v>1.05283426697</v>
       </c>
       <c r="S8">
-        <v>0.006281318818140734</v>
+        <v>0.004084340713599729</v>
       </c>
       <c r="T8">
-        <v>0.006281318818140733</v>
+        <v>0.00408434071359973</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.343827</v>
+        <v>0.1406516666666666</v>
       </c>
       <c r="H9">
-        <v>1.031481</v>
+        <v>0.421955</v>
       </c>
       <c r="I9">
-        <v>0.1332057341378945</v>
+        <v>0.1550299732085515</v>
       </c>
       <c r="J9">
-        <v>0.1332057341378944</v>
+        <v>0.1550299732085515</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>61.843018</v>
       </c>
       <c r="O9">
-        <v>0.6818173855147049</v>
+        <v>0.6529848313028861</v>
       </c>
       <c r="P9">
-        <v>0.6818173855147048</v>
+        <v>0.6529848313028862</v>
       </c>
       <c r="Q9">
-        <v>7.087766449962001</v>
+        <v>2.899441184465555</v>
       </c>
       <c r="R9">
-        <v>63.78989804965801</v>
+        <v>26.09497066019</v>
       </c>
       <c r="S9">
-        <v>0.09082198538546608</v>
+        <v>0.101232220902477</v>
       </c>
       <c r="T9">
-        <v>0.09082198538546606</v>
+        <v>0.101232220902477</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.343827</v>
+        <v>0.1406516666666666</v>
       </c>
       <c r="H10">
-        <v>1.031481</v>
+        <v>0.421955</v>
       </c>
       <c r="I10">
-        <v>0.1332057341378945</v>
+        <v>0.1550299732085515</v>
       </c>
       <c r="J10">
-        <v>0.1332057341378944</v>
+        <v>0.1550299732085515</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.194356666666666</v>
+        <v>10.12334933333333</v>
       </c>
       <c r="N10">
-        <v>24.58307</v>
+        <v>30.370048</v>
       </c>
       <c r="O10">
-        <v>0.2710275962813615</v>
+        <v>0.3206696780215441</v>
       </c>
       <c r="P10">
-        <v>0.2710275962813615</v>
+        <v>0.3206696780215441</v>
       </c>
       <c r="Q10">
-        <v>2.81744106963</v>
+        <v>1.423865955982222</v>
       </c>
       <c r="R10">
-        <v>25.35696962667</v>
+        <v>12.81479360384</v>
       </c>
       <c r="S10">
-        <v>0.03610242993428764</v>
+        <v>0.04971341159247481</v>
       </c>
       <c r="T10">
-        <v>0.03610242993428763</v>
+        <v>0.04971341159247482</v>
       </c>
     </row>
   </sheetData>
